--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 MS.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>Course</t>
   </si>
@@ -46,13 +46,13 @@
     <t>CANTRELL C</t>
   </si>
   <si>
-    <t>62.06%</t>
-  </si>
-  <si>
-    <t>35.57%</t>
-  </si>
-  <si>
-    <t>2.37%</t>
+    <t>61.28%</t>
+  </si>
+  <si>
+    <t>36.09%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
   </si>
   <si>
     <t>0.00%</t>
@@ -85,10 +85,10 @@
     <t>SANGER N</t>
   </si>
   <si>
-    <t>88.24%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
+    <t>95.56%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
   </si>
   <si>
     <t>AERS-403</t>
@@ -106,16 +106,16 @@
     <t>FRENCH B</t>
   </si>
   <si>
-    <t>86.36%</t>
-  </si>
-  <si>
-    <t>8.64%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
+    <t>87.24%</t>
+  </si>
+  <si>
+    <t>8.23%</t>
+  </si>
+  <si>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>1.23%</t>
   </si>
   <si>
     <t>MLSC-221</t>
@@ -124,19 +124,19 @@
     <t>PETERSON D</t>
   </si>
   <si>
-    <t>76.15%</t>
-  </si>
-  <si>
-    <t>13.76%</t>
-  </si>
-  <si>
-    <t>7.34%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>1.83%</t>
+    <t>81.43%</t>
+  </si>
+  <si>
+    <t>10.48%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
   </si>
   <si>
     <t>MLSC-321</t>
@@ -178,13 +178,16 @@
     <t>SPEAKES G</t>
   </si>
   <si>
-    <t>82.61%</t>
-  </si>
-  <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>8.70%</t>
+    <t>78.79%</t>
+  </si>
+  <si>
+    <t>15.15%</t>
+  </si>
+  <si>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>2.02%</t>
   </si>
   <si>
     <t>MLSC-485</t>
@@ -235,6 +238,15 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>HAYNIE D</t>
+  </si>
+  <si>
+    <t>45.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>LIEBSCH J</t>
   </si>
   <si>
@@ -247,19 +259,55 @@
     <t>13.21%</t>
   </si>
   <si>
+    <t>NVSC-210</t>
+  </si>
+  <si>
+    <t>GARCIA O</t>
+  </si>
+  <si>
+    <t>51.11%</t>
+  </si>
+  <si>
+    <t>46.67%</t>
+  </si>
+  <si>
+    <t>GENETTI A</t>
+  </si>
+  <si>
+    <t>77.32%</t>
+  </si>
+  <si>
+    <t>17.53%</t>
+  </si>
+  <si>
+    <t>2.06%</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>PENA M</t>
+  </si>
+  <si>
+    <t>67.86%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
     <t>NVSC-320</t>
   </si>
   <si>
     <t>TRASK D</t>
   </si>
   <si>
-    <t>68.75%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>6.25%</t>
+    <t>72.41%</t>
+  </si>
+  <si>
+    <t>24.14%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
   </si>
   <si>
     <t>NVSC-404</t>
@@ -295,111 +343,123 @@
     <t>NVSC-485</t>
   </si>
   <si>
-    <t>GARCIA O</t>
-  </si>
-  <si>
     <t>SOMS-111</t>
   </si>
   <si>
     <t>SIMPSON M</t>
   </si>
   <si>
-    <t>87.88%</t>
+    <t>84.15%</t>
+  </si>
+  <si>
+    <t>10.98%</t>
+  </si>
+  <si>
+    <t>4.88%</t>
+  </si>
+  <si>
+    <t>VELA C</t>
+  </si>
+  <si>
+    <t>74.52%</t>
+  </si>
+  <si>
+    <t>12.10%</t>
+  </si>
+  <si>
+    <t>5.10%</t>
+  </si>
+  <si>
+    <t>5.73%</t>
+  </si>
+  <si>
+    <t>2.55%</t>
+  </si>
+  <si>
+    <t>KOGUT R</t>
+  </si>
+  <si>
+    <t>67.35%</t>
+  </si>
+  <si>
+    <t>8.16%</t>
+  </si>
+  <si>
+    <t>16.33%</t>
+  </si>
+  <si>
+    <t>CONNOLLY A</t>
+  </si>
+  <si>
+    <t>83.83%</t>
+  </si>
+  <si>
+    <t>11.38%</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
+    <t>4.19%</t>
+  </si>
+  <si>
+    <t>SOMS-180</t>
+  </si>
+  <si>
+    <t>IVEY C</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>NORRIS D</t>
+  </si>
+  <si>
+    <t>84.85%</t>
+  </si>
+  <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>SOMS-380</t>
+  </si>
+  <si>
+    <t>MCCLURE M</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>32.69%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>5.77%</t>
+  </si>
+  <si>
+    <t>SCOGGINS J</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>21.21%</t>
   </si>
   <si>
     <t>6.06%</t>
   </si>
   <si>
-    <t>VELA C</t>
-  </si>
-  <si>
-    <t>67.50%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>KOGUT R</t>
-  </si>
-  <si>
-    <t>69.70%</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>CONNOLLY A</t>
-  </si>
-  <si>
-    <t>79.55%</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>SOMS-180</t>
-  </si>
-  <si>
-    <t>IVEY C</t>
-  </si>
-  <si>
-    <t>93.10%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>NORRIS D</t>
-  </si>
-  <si>
-    <t>84.85%</t>
-  </si>
-  <si>
-    <t>12.12%</t>
-  </si>
-  <si>
-    <t>3.03%</t>
-  </si>
-  <si>
-    <t>SOMS-380</t>
-  </si>
-  <si>
-    <t>MCCLURE M</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>32.69%</t>
-  </si>
-  <si>
-    <t>15.38%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
-  </si>
-  <si>
-    <t>5.77%</t>
-  </si>
-  <si>
-    <t>SCOGGINS J</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>WENTLING D</t>
   </si>
   <si>
@@ -412,9 +472,6 @@
     <t>SHEHANE M</t>
   </si>
   <si>
-    <t>72.73%</t>
-  </si>
-  <si>
     <t>22.73%</t>
   </si>
   <si>
@@ -433,6 +490,15 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>POWERS T</t>
+  </si>
+  <si>
+    <t>80.77%</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
     <t>SIMPSON L</t>
   </si>
   <si>
@@ -487,10 +553,19 @@
     <t>ARCAK C</t>
   </si>
   <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
+    <t>68.35%</t>
+  </si>
+  <si>
+    <t>18.99%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>3.80%</t>
   </si>
   <si>
     <t>SULLINS D</t>
@@ -527,6 +602,18 @@
   </si>
   <si>
     <t>BOGUE P</t>
+  </si>
+  <si>
+    <t>46.94%</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>2.04%</t>
+  </si>
+  <si>
+    <t>SOMS-485</t>
   </si>
 </sst>
 </file>
@@ -863,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5995</v>
+        <v>3.5817</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -963,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>3.824</v>
+        <v>3.9413</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1042,7 +1129,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>3.7595</v>
+        <v>3.7813</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -1070,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>3.623</v>
+        <v>3.6926</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -1149,7 +1236,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>3.609</v>
+        <v>3.6663</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -1164,29 +1251,29 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="n">
         <v>3.818</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1197,64 +1284,64 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
         <v>3.358</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="n">
         <v>3.75</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="n">
-        <v>3.386</v>
+        <v>3.45</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -1269,57 +1356,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
         <v>77</v>
       </c>
+      <c r="C35" t="n">
+        <v>3.386</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>82</v>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.6705</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>3.6115</v>
+        <v>3.571</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1327,24 +1455,24 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C43" t="n">
-        <v>3.292</v>
+        <v>3.697</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1355,24 +1483,24 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3.6115</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1383,24 +1511,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C49" t="n">
-        <v>3.818</v>
+        <v>3.292</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1409,95 +1537,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.2573</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.091</v>
-      </c>
-      <c r="D51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
+      <c r="A51" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C52" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.7867</v>
+      </c>
+      <c r="D55" t="s">
         <v>111</v>
       </c>
-      <c r="C55" t="n">
-        <v>3.931</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>112</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>113</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -1511,7 +1598,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>3.758</v>
+        <v>3.4995</v>
       </c>
       <c r="D56" t="s">
         <v>115</v>
@@ -1520,78 +1607,78 @@
         <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2.904</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="B58" t="s">
         <v>124</v>
       </c>
+      <c r="C58" t="n">
+        <v>3.7033</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
+      <c r="A60" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C61" t="n">
-        <v>3.902</v>
+        <v>3.931</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -1605,111 +1692,70 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C62" t="n">
-        <v>3.636</v>
+        <v>3.758</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.5605</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" t="s">
         <v>136</v>
       </c>
-      <c r="F63" t="s">
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
         <v>137</v>
-      </c>
-      <c r="G63" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.454</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" t="s">
         <v>143</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D65" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.537</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>147</v>
-      </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -1723,7 +1769,7 @@
         <v>148</v>
       </c>
       <c r="C67" t="n">
-        <v>3.556</v>
+        <v>3.902</v>
       </c>
       <c r="D67" t="s">
         <v>149</v>
@@ -1732,7 +1778,7 @@
         <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
@@ -1741,29 +1787,70 @@
         <v>13</v>
       </c>
     </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>151</v>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.5605</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C70" t="n">
-        <v>3.3675</v>
+        <v>3.731</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -1771,65 +1858,65 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C71" t="n">
-        <v>3.603</v>
+        <v>2.454</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="G71" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C72" t="n">
-        <v>3.111</v>
+        <v>3.857</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C73" t="n">
-        <v>3.9545</v>
+        <v>3.75</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
@@ -1840,47 +1927,195 @@
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C74" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.3675</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.4513</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" t="s">
+        <v>187</v>
+      </c>
+      <c r="H79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.9545</v>
+      </c>
+      <c r="D80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" t="s">
+        <v>190</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="n">
         <v>3.48</v>
       </c>
-      <c r="D74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F74" t="s">
-        <v>169</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>50</v>
-      </c>
-      <c r="E75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" t="s">
+        <v>198</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 MS.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-101</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>0.37%</t>
+  </si>
+  <si>
     <t>AERS-201</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>1.23%</t>
   </si>
   <si>
+    <t>2.41%</t>
+  </si>
+  <si>
     <t>MLSC-221</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>1.90%</t>
   </si>
   <si>
+    <t>0.47%</t>
+  </si>
+  <si>
     <t>MLSC-321</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>3.60%</t>
   </si>
   <si>
+    <t>0.89%</t>
+  </si>
+  <si>
     <t>HEATHMAN R</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
     <t>2.17%</t>
   </si>
   <si>
+    <t>1.08%</t>
+  </si>
+  <si>
     <t>FLEMING J</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>HAYNIE D</t>
   </si>
   <si>
@@ -247,6 +268,9 @@
     <t>5.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>LIEBSCH J</t>
   </si>
   <si>
@@ -310,6 +334,9 @@
     <t>3.45%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>NVSC-404</t>
   </si>
   <si>
@@ -325,6 +352,9 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>NVSC-410</t>
   </si>
   <si>
@@ -376,6 +406,9 @@
     <t>2.55%</t>
   </si>
   <si>
+    <t>1.87%</t>
+  </si>
+  <si>
     <t>KOGUT R</t>
   </si>
   <si>
@@ -403,6 +436,9 @@
     <t>4.19%</t>
   </si>
   <si>
+    <t>1.18%</t>
+  </si>
+  <si>
     <t>SOMS-180</t>
   </si>
   <si>
@@ -448,6 +484,9 @@
     <t>5.77%</t>
   </si>
   <si>
+    <t>5.45%</t>
+  </si>
+  <si>
     <t>SCOGGINS J</t>
   </si>
   <si>
@@ -490,6 +529,9 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>POWERS T</t>
   </si>
   <si>
@@ -568,6 +610,9 @@
     <t>3.80%</t>
   </si>
   <si>
+    <t>3.66%</t>
+  </si>
+  <si>
     <t>SULLINS D</t>
   </si>
   <si>
@@ -577,9 +622,6 @@
     <t>11.11%</t>
   </si>
   <si>
-    <t>3.70%</t>
-  </si>
-  <si>
     <t>BROWN T</t>
   </si>
   <si>
@@ -589,6 +631,9 @@
     <t>1.67%</t>
   </si>
   <si>
+    <t>1.64%</t>
+  </si>
+  <si>
     <t>STRUMINGER R</t>
   </si>
   <si>
@@ -599,6 +644,9 @@
   </si>
   <si>
     <t>6.12%</t>
+  </si>
+  <si>
+    <t>2.00%</t>
   </si>
   <si>
     <t>BOGUE P</t>
@@ -651,12 +699,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -950,15 +997,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,1140 +1030,1278 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.5817</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.7034</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>3.9413</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
         <v>3.7813</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>3.6926</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>3.3227</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
         <v>3.429</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>3.6663</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="n">
         <v>3.818</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C32" t="n">
         <v>3.358</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33" t="n">
         <v>3.75</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C34" t="n">
         <v>3.45</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C35" t="n">
         <v>3.386</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
         <v>3.489</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C39" t="n">
         <v>3.6705</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C40" t="n">
         <v>3.571</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C43" t="n">
         <v>3.697</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C46" t="n">
         <v>3.6115</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C49" t="n">
         <v>3.292</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C55" t="n">
         <v>3.7867</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C56" t="n">
         <v>3.4995</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C57" t="n">
         <v>3.108</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C58" t="n">
         <v>3.7033</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C61" t="n">
         <v>3.931</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C62" t="n">
         <v>3.758</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C65" t="n">
         <v>2.904</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G65" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C66" t="n">
         <v>3.537</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C67" t="n">
         <v>3.902</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C68" t="n">
         <v>3.636</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C69" t="n">
         <v>3.5605</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C70" t="n">
         <v>3.731</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C71" t="n">
         <v>2.454</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C72" t="n">
         <v>3.857</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C73" t="n">
         <v>3.75</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C74" t="n">
         <v>3.556</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C77" t="n">
         <v>3.3675</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C78" t="n">
         <v>3.4513</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F78" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H78" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C79" t="n">
         <v>3.111</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G79" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C80" t="n">
         <v>3.9545</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F80" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C81" t="n">
         <v>3.48</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C82" t="n">
         <v>3.39</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G82" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
